--- a/src/main/resources/order/order.xlsx
+++ b/src/main/resources/order/order.xlsx
@@ -47,19 +47,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Mirjon null</t>
+    <t>Behruz Izzatullayev null</t>
   </si>
   <si>
     <t>PAYME</t>
   </si>
   <si>
-    <t>12/02/2022</t>
+    <t>04/12/2025</t>
   </si>
   <si>
-    <t>Cap</t>
+    <t>T-Shirt</t>
   </si>
   <si>
-    <t>12000.0</t>
+    <t>6000.0</t>
   </si>
 </sst>
 </file>
@@ -165,19 +165,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="n" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>15</v>
       </c>
       <c r="H2" t="n" s="1">
-        <v>72000.0</v>
+        <v>42000.0</v>
       </c>
       <c r="I2" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="J2" t="n" s="1">
-        <v>72720.0</v>
+        <v>42420.0</v>
       </c>
       <c r="K2" t="s" s="1">
         <v>13</v>

--- a/src/main/resources/order/order.xlsx
+++ b/src/main/resources/order/order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -47,19 +47,271 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Behruz Izzatullayev null</t>
+    <t>eldor</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 08:30:28</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 10:43:38</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>6000.0</t>
   </si>
   <si>
     <t>PAYME</t>
   </si>
   <si>
-    <t>04/12/2025</t>
-  </si>
-  <si>
-    <t>T-Shirt</t>
-  </si>
-  <si>
-    <t>6000.0</t>
+    <t>08-12-2021 , 10:51:01</t>
+  </si>
+  <si>
+    <t>asad</t>
+  </si>
+  <si>
+    <t>APELSIN</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 11:45:30</t>
+  </si>
+  <si>
+    <t>asilbek</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 12:13:00</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 21:25:41</t>
+  </si>
+  <si>
+    <t>OSON</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 21:27:49</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 21:29:03</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 21:35:58</t>
+  </si>
+  <si>
+    <t>08-12-2021 , 21:37:29</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 00:29:16</t>
+  </si>
+  <si>
+    <t>hoji</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 00:39:00</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 00:46:10</t>
+  </si>
+  <si>
+    <t>Asad</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 00:50:34</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 01:22:10</t>
+  </si>
+  <si>
+    <t>nodir</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 01:24:38</t>
+  </si>
+  <si>
+    <t>asadbek</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 01:33:17</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 07:18:44</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 09:23:53</t>
+  </si>
+  <si>
+    <t>09-12-2021 , 15:31:52</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>10-12-2021 , 09:48:07</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>13-12-2021 , 23:57:27</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>14-12-2021 , 00:09:50</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>14-12-2021 , 08:13:35</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:33:12</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:39:19</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:44:40</t>
+  </si>
+  <si>
+    <t>ZOODMARD</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:46:26</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:51:36</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 20:57:56</t>
+  </si>
+  <si>
+    <t>HUMO</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 21:00:27</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 21:02:44</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 21:05:26</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 21:10:22</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 21:23:00</t>
+  </si>
+  <si>
+    <t>21-12-2021 , 22:47:02</t>
+  </si>
+  <si>
+    <t>22-12-2021 , 08:29:08</t>
+  </si>
+  <si>
+    <t>22-12-2021 , 09:00:30</t>
+  </si>
+  <si>
+    <t>22-12-2021 , 13:26:34</t>
+  </si>
+  <si>
+    <t>22-12-2021 , 13:55:23</t>
+  </si>
+  <si>
+    <t>22-12-2021 , 21:05:28</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 08:23:08</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 08:24:17</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 08:27:41</t>
+  </si>
+  <si>
+    <t>710525012</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 09:42:01</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 10:02:28</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 11:15:50</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 11:36:13</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 12:13:24</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 14:58:44</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 15:07:11</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 15:12:14</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 15:14:46</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 15:15:28</t>
+  </si>
+  <si>
+    <t>23-12-2021 , 21:12:26</t>
+  </si>
+  <si>
+    <t>25-12-2021 , 15:04:21</t>
+  </si>
+  <si>
+    <t>25-12-2021 , 17:08:57</t>
+  </si>
+  <si>
+    <t>17-01-2022 , 01:02:53</t>
+  </si>
+  <si>
+    <t>17-01-2022 , 12:15:53</t>
+  </si>
+  <si>
+    <t>27-01-2022 , 23:19:40</t>
+  </si>
+  <si>
+    <t>30-01-2022 , 22:24:14</t>
+  </si>
+  <si>
+    <t>12-02-2022 , 16:32:08</t>
+  </si>
+  <si>
+    <t>04-12-2025 , 15:32:50</t>
+  </si>
+  <si>
+    <t>04-12-2025 , 15:47:05</t>
   </si>
 </sst>
 </file>
@@ -107,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,25 +417,2772 @@
         <v>14</v>
       </c>
       <c r="F2" t="n" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>15</v>
       </c>
       <c r="H2" t="n" s="1">
-        <v>42000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I2" t="n" s="1">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="J2" t="n" s="1">
-        <v>42420.0</v>
+        <v>5025.0</v>
       </c>
       <c r="K2" t="s" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="3"/>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n" s="1">
+        <v>28000.0</v>
+      </c>
+      <c r="I4" t="n" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="J4" t="n" s="1">
+        <v>28140.0</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" t="n" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="I7" t="n" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="J7" t="n" s="1">
+        <v>15150.0</v>
+      </c>
+      <c r="K7" t="s" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" t="n" s="1">
+        <v>95000.0</v>
+      </c>
+      <c r="I9" t="n" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="J9" t="n" s="1">
+        <v>95285.0</v>
+      </c>
+      <c r="K9" t="s" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n" s="1">
+        <v>25000.0</v>
+      </c>
+      <c r="I12" t="n" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="J12" t="n" s="1">
+        <v>25125.0</v>
+      </c>
+      <c r="K12" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F14" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G14" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n" s="1">
+        <v>28000.0</v>
+      </c>
+      <c r="I14" t="n" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="J14" t="n" s="1">
+        <v>28140.0</v>
+      </c>
+      <c r="K14" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F15" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G15" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I17" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J17" t="n" s="1">
+        <v>5015.0</v>
+      </c>
+      <c r="K17" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="I19" t="n" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="J19" t="n" s="1">
+        <v>15075.0</v>
+      </c>
+      <c r="K19" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G21" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n" s="1">
+        <v>28000.0</v>
+      </c>
+      <c r="I21" t="n" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="J21" t="n" s="1">
+        <v>28280.0</v>
+      </c>
+      <c r="K21" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G22" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F24" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G24" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n" s="1">
+        <v>80000.0</v>
+      </c>
+      <c r="I24" t="n" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="J24" t="n" s="1">
+        <v>80240.0</v>
+      </c>
+      <c r="K24" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F25" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G25" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G27" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H27" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="I27" t="n" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J27" t="n" s="1">
+        <v>10030.0</v>
+      </c>
+      <c r="K27" t="s" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G29" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H29" t="n" s="1">
+        <v>40000.0</v>
+      </c>
+      <c r="I29" t="n" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="J29" t="n" s="1">
+        <v>40120.0</v>
+      </c>
+      <c r="K29" t="s" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" t="n" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F31" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G31" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H31" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="I31" t="n" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J31" t="n" s="1">
+        <v>10030.0</v>
+      </c>
+      <c r="K31" t="s" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" t="n" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="H33" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I33" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J33" t="n" s="1">
+        <v>5015.0</v>
+      </c>
+      <c r="K33" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F34" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G34" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="I34" t="n" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="J34" t="n" s="1">
+        <v>10050.0</v>
+      </c>
+      <c r="K34" t="s" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="n" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F36" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G36" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n" s="1">
+        <v>11000.0</v>
+      </c>
+      <c r="I36" t="n" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="J36" t="n" s="1">
+        <v>11110.0</v>
+      </c>
+      <c r="K36" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G37" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" t="n" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F39" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G39" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H39" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I39" t="n" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J39" t="n" s="1">
+        <v>5025.0</v>
+      </c>
+      <c r="K39" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" t="n" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G41" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H41" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="I41" t="n" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="J41" t="n" s="1">
+        <v>10050.0</v>
+      </c>
+      <c r="K41" t="s" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" t="n" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F43" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G43" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H43" t="n" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="I43" t="n" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="J43" t="n" s="1">
+        <v>15045.0</v>
+      </c>
+      <c r="K43" t="s" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F45" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G45" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H45" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I45" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J45" t="n" s="1">
+        <v>30090.0</v>
+      </c>
+      <c r="K45" t="s" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F46" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G46" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" t="n" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G48" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H48" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I48" t="n" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="J48" t="n" s="1">
+        <v>5025.0</v>
+      </c>
+      <c r="K48" t="s" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="n" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F50" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G50" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n" s="1">
+        <v>18000.0</v>
+      </c>
+      <c r="I50" t="n" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="J50" t="n" s="1">
+        <v>18054.0</v>
+      </c>
+      <c r="K50" t="s" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F51" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" t="n" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F53" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G53" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="H53" t="n" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="I53" t="n" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="J53" t="n" s="1">
+        <v>15075.0</v>
+      </c>
+      <c r="K53" t="s" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54"/>
+    <row r="55">
+      <c r="A55" t="n" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G55" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n" s="1">
+        <v>69000.0</v>
+      </c>
+      <c r="I55" t="n" s="1">
+        <v>345.0</v>
+      </c>
+      <c r="J55" t="n" s="1">
+        <v>69345.0</v>
+      </c>
+      <c r="K55" t="s" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G56" t="s" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F57" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G57" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" t="n" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H59" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I59" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J59" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K59" t="s" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F60" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="n" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F62" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G62" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I62" t="n" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="J62" t="n" s="1">
+        <v>30150.0</v>
+      </c>
+      <c r="K62" t="s" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F63" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G63" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" t="n" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F65" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G65" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H65" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I65" t="n" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="J65" t="n" s="1">
+        <v>24240.0</v>
+      </c>
+      <c r="K65" t="s" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F66" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68">
+      <c r="A68" t="n" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F68" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H68" t="n" s="1">
+        <v>29000.0</v>
+      </c>
+      <c r="I68" t="n" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="J68" t="n" s="1">
+        <v>29232.0</v>
+      </c>
+      <c r="K68" t="s" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F69" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G69" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" t="n" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F71" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G71" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H71" t="n" s="1">
+        <v>20000.0</v>
+      </c>
+      <c r="I71" t="n" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="J71" t="n" s="1">
+        <v>20200.0</v>
+      </c>
+      <c r="K71" t="s" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" t="n" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F73" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G73" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H73" t="n" s="1">
+        <v>18000.0</v>
+      </c>
+      <c r="I73" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J73" t="n" s="1">
+        <v>18090.0</v>
+      </c>
+      <c r="K73" t="s" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F74" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G74" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76">
+      <c r="A76" t="n" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F76" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G76" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H76" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I76" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J76" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K76" t="s" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="n" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F78" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G78" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H78" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I78" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J78" t="n" s="1">
+        <v>30090.0</v>
+      </c>
+      <c r="K78" t="s" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F79" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" t="n" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F81" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G81" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H81" t="n" s="1">
+        <v>48000.0</v>
+      </c>
+      <c r="I81" t="n" s="1">
+        <v>480.0</v>
+      </c>
+      <c r="J81" t="n" s="1">
+        <v>48480.0</v>
+      </c>
+      <c r="K81" t="s" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F82" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G82" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" t="n" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F84" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G84" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H84" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I84" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J84" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K84" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F85" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G85" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87">
+      <c r="A87" t="n" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F87" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G87" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H87" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I87" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J87" t="n" s="1">
+        <v>30090.0</v>
+      </c>
+      <c r="K87" t="s" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G88" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" t="n" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F90" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G90" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H90" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I90" t="n" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="J90" t="n" s="1">
+        <v>30150.0</v>
+      </c>
+      <c r="K90" t="s" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F91" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G91" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92"/>
+    <row r="93">
+      <c r="A93" t="n" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F93" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G93" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H93" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I93" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J93" t="n" s="1">
+        <v>30090.0</v>
+      </c>
+      <c r="K93" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F94" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G94" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" t="n" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F96" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G96" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H96" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I96" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J96" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K96" t="s" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" t="n" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F98" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G98" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H98" t="n" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="I98" t="n" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="J98" t="n" s="1">
+        <v>15075.0</v>
+      </c>
+      <c r="K98" t="s" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100">
+      <c r="A100" t="n" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F100" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G100" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H100" t="n" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="I100" t="n" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="J100" t="n" s="1">
+        <v>30090.0</v>
+      </c>
+      <c r="K100" t="s" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F101" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G101" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" t="n" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F103" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G103" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H103" t="n" s="1">
+        <v>39000.0</v>
+      </c>
+      <c r="I103" t="n" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="J103" t="n" s="1">
+        <v>39117.0</v>
+      </c>
+      <c r="K103" t="s" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F104" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G104" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F105" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G105" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="n" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F107" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G107" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H107" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I107" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J107" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K107" t="s" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" t="n" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F109" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G109" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H109" t="n" s="1">
+        <v>71000.0</v>
+      </c>
+      <c r="I109" t="n" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="J109" t="n" s="1">
+        <v>71355.0</v>
+      </c>
+      <c r="K109" t="s" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F110" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G110" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F111" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G111" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" t="n" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F113" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G113" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H113" t="n" s="1">
+        <v>114000.0</v>
+      </c>
+      <c r="I113" t="n" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="J113" t="n" s="1">
+        <v>114570.0</v>
+      </c>
+      <c r="K113" t="s" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F114" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G114" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F115" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G115" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117">
+      <c r="A117" t="n" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F117" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G117" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H117" t="n" s="1">
+        <v>29000.0</v>
+      </c>
+      <c r="I117" t="n" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="J117" t="n" s="1">
+        <v>29087.0</v>
+      </c>
+      <c r="K117" t="s" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F118" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" t="n" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F120" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G120" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H120" t="n" s="1">
+        <v>12000.0</v>
+      </c>
+      <c r="I120" t="n" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="J120" t="n" s="1">
+        <v>12036.0</v>
+      </c>
+      <c r="K120" t="s" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121"/>
+    <row r="122">
+      <c r="A122" t="n" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F122" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G122" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H122" t="n" s="1">
+        <v>14000.0</v>
+      </c>
+      <c r="I122" t="n" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="J122" t="n" s="1">
+        <v>14042.0</v>
+      </c>
+      <c r="K122" t="s" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F123" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G123" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124"/>
+    <row r="125">
+      <c r="A125" t="n" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F125" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G125" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="H125" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I125" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J125" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K125" t="s" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F126" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G126" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F127" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G127" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" t="n" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F129" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G129" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="H129" t="n" s="1">
+        <v>62000.0</v>
+      </c>
+      <c r="I129" t="n" s="1">
+        <v>186.0</v>
+      </c>
+      <c r="J129" t="n" s="1">
+        <v>62186.0</v>
+      </c>
+      <c r="K129" t="s" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F130" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G130" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F131" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G131" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F132" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G132" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" t="n" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D134" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F134" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G134" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H134" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I134" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J134" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K134" t="s" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136">
+      <c r="A136" t="n" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="D136" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F136" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G136" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H136" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="I136" t="n" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J136" t="n" s="1">
+        <v>10030.0</v>
+      </c>
+      <c r="K136" t="s" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" t="n" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D138" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F138" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G138" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H138" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I138" t="n" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="J138" t="n" s="1">
+        <v>24072.0</v>
+      </c>
+      <c r="K138" t="s" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139"/>
+    <row r="140">
+      <c r="A140" t="n" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F140" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G140" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="H140" t="n" s="1">
+        <v>16000.0</v>
+      </c>
+      <c r="I140" t="n" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="J140" t="n" s="1">
+        <v>16080.0</v>
+      </c>
+      <c r="K140" t="s" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141"/>
+    <row r="142">
+      <c r="A142" t="n" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="D142" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F142" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G142" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H142" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I142" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J142" t="n" s="1">
+        <v>5015.0</v>
+      </c>
+      <c r="K142" t="s" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143"/>
+    <row r="144">
+      <c r="A144" t="n" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F144" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G144" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H144" t="n" s="1">
+        <v>24000.0</v>
+      </c>
+      <c r="I144" t="n" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="J144" t="n" s="1">
+        <v>24120.0</v>
+      </c>
+      <c r="K144" t="s" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145"/>
+    <row r="146">
+      <c r="A146" t="n" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G146" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H146" t="n" s="1">
+        <v>34000.0</v>
+      </c>
+      <c r="I146" t="n" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="J146" t="n" s="1">
+        <v>34102.0</v>
+      </c>
+      <c r="K146" t="s" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F147" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G147" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" t="n" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F149" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G149" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H149" t="n" s="1">
+        <v>156000.0</v>
+      </c>
+      <c r="I149" t="n" s="1">
+        <v>468.0</v>
+      </c>
+      <c r="J149" t="n" s="1">
+        <v>156468.0</v>
+      </c>
+      <c r="K149" t="s" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F150" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G150" t="s" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="F151" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G151" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F152" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G152" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153"/>
+    <row r="154">
+      <c r="A154" t="n" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F154" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G154" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H154" t="n" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="I154" t="n" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="J154" t="n" s="1">
+        <v>50250.0</v>
+      </c>
+      <c r="K154" t="s" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155"/>
+    <row r="156">
+      <c r="A156" t="n" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F156" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G156" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H156" t="n" s="1">
+        <v>12000.0</v>
+      </c>
+      <c r="I156" t="n" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="J156" t="n" s="1">
+        <v>12060.0</v>
+      </c>
+      <c r="K156" t="s" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157"/>
+    <row r="158">
+      <c r="A158" t="n" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F158" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G158" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H158" t="n" s="1">
+        <v>36000.0</v>
+      </c>
+      <c r="I158" t="n" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="J158" t="n" s="1">
+        <v>36180.0</v>
+      </c>
+      <c r="K158" t="s" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" t="n" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D160" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F160" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G160" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H160" t="n" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="I160" t="n" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="J160" t="n" s="1">
+        <v>6048.0</v>
+      </c>
+      <c r="K160" t="s" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161"/>
+    <row r="162">
+      <c r="A162" t="n" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F162" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G162" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H162" t="n" s="1">
+        <v>72000.0</v>
+      </c>
+      <c r="I162" t="n" s="1">
+        <v>720.0</v>
+      </c>
+      <c r="J162" t="n" s="1">
+        <v>72720.0</v>
+      </c>
+      <c r="K162" t="s" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163"/>
+    <row r="164">
+      <c r="A164" t="n" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D164" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F164" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G164" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="H164" t="n" s="1">
+        <v>48000.0</v>
+      </c>
+      <c r="I164" t="n" s="1">
+        <v>480.0</v>
+      </c>
+      <c r="J164" t="n" s="1">
+        <v>48480.0</v>
+      </c>
+      <c r="K164" t="s" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165"/>
+    <row r="166">
+      <c r="A166" t="n" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D166" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F166" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G166" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H166" t="n" s="1">
+        <v>42000.0</v>
+      </c>
+      <c r="I166" t="n" s="1">
+        <v>420.0</v>
+      </c>
+      <c r="J166" t="n" s="1">
+        <v>42420.0</v>
+      </c>
+      <c r="K166" t="s" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
